--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -47,6 +47,103 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -55,8 +152,24 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -68,119 +181,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -197,181 +197,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,30 +400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -442,28 +418,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,16 +438,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -500,131 +500,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="17" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="9" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="22" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,12 +962,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A17" ySplit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="C19" pane="bottomLeft" sqref="C19"/>
+      <selection activeCell="A20" pane="bottomLeft" sqref="$A20:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'id': 6718, 'plate_number_exist_data': False, 'reference_price': 5200000}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'id': 6725, 'plate_number_exist_data': False, 'reference_price': 5200000}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'car_info_id': 24046}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'car_info_id': 24059}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'ticket_id': 6718}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'ticket_id': 6725}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1674,7 +1674,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1701,18 +1701,18 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'code': 400, 'message': '二手车线索不可由财务审核'}</t>
+          <t>{'code': 0, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
     </row>
     <row customHeight="1" ht="303.6" r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1801,18 +1801,6 @@
         </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'message': 'ok'}</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>pass</t>
         </is>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -47,8 +47,107 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -63,105 +162,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -176,8 +177,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -191,25 +191,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,31 +293,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,121 +335,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,17 +385,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,11 +409,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,8 +456,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -459,26 +476,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,10 +488,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="9" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -500,131 +500,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="22" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="8" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="11" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,12 +962,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="1"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A19" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A20" pane="bottomLeft" sqref="$A20:$XFD21"/>
+      <selection activeCell="C24" pane="bottomLeft" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'id': 6725, 'plate_number_exist_data': False, 'reference_price': 5200000}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'id': 6770, 'plate_number_exist_data': False, 'reference_price': 5200000}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'car_info_id': 24059}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'car_info_id': 24123}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>{"vin":"${vin_num}","car_model_id":8086,"car_model_name":"宝马 5系 2005款 3.0L 自动 530Li","mileage":111222,"color_id":"1","is_color_changed":False,"production_date":"2019-08-12","license_issued_on":"2019-08-16","transfer_count":0,"last_transfer_date":None,"belonged_province":"广东省","belonged_province_code":"440000","belonged_city":"深圳市","belonged_city_code":"440300","located_province":"广东省","located_province_code":"440000","located_city":"深圳市","located_city_code":"440300","plate_number":"${car_num}","is_refitted":False,"car_character":1,"car_character_name":"私户","usage_character":2,"usage_character_name":"非营运","emission_standard":106,"emission_standard_name":"国六","info_has_changes":True}</t>
+          <t>{'vin': '${vin_num}', 'car_model_id': 1261, 'car_model_name': '宝马 5系 2005款 3.0L 自动 530Li', 'mileage': 111222, 'color_id': '1', 'is_color_changed': False, 'production_date': '2019-08-12', 'license_issued_on': '2019-08-16', 'transfer_count': 0, 'last_transfer_date': None, 'belonged_province': '广东省', 'belonged_province_code': '440000', 'belonged_city': '深圳市', 'belonged_city_code': '440300', 'located_province': '广东省', 'located_province_code': '440000', 'located_city': '深圳市', 'located_city_code': '440300', 'plate_number': '${car_num}', 'is_refitted': False, 'car_character': 1, 'car_character_name': '私户', 'usage_character': 2, 'usage_character_name': '非营运', 'emission_standard': 106, 'emission_standard_name': '国六', 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>评估线索-评估车辆信息-配置信息手续信息</t>
+          <t>评估线索-评估车辆信息-配置信息</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>{"info":{"config":[{"group_name":"basic","name":"基本参数","params":[{"name":"车门数(个)","external_name":"Body_Doors","value":""},{"name":"座位数(个)","external_name":"Perf_SeatNum","value":""},{"name":"排量(L)","external_name":"Engine_ExhaustForFloat","value":""},{"name":"燃料类型","external_name":"Oil_FuelType","value":""},{"name":"挡位个数(个)","external_name":"UnderPan_ForwardGearNum","value":""},{"name":"变速箱类型","external_name":"UnderPan_TransmissionType","value":""},{"name":"驱动方式","external_name":"Perf_DriveType","value":""}]},{"group_name":"security","name":"主/被动安全设备","params":[{"name":"驾驶位安全气囊","external_name":"Safe_DriverGasBag","value":""},{"name":"副驾驶位安全气囊","external_name":"Safe_SubDriverGasBag","value":""},{"name":"前排侧安全气囊","external_name":"Safe_FsadGasbag","value":""},{"name":"后排侧安全气囊","external_name":"Safe_BsadGasbag","value":""},{"name":"前排头部气囊(气帘)","external_name":"Safe_FheadGasbag","value":""},{"name":"膝部气囊","external_name":"Safe_KneeGasBag","value":""},{"name":"安全带气囊","external_name":"InStat_BeltBag","value":""},{"name":"胎压监测装置","external_name":"UnderPan_TyrePressureWatcher","value":""},{"name":"刹车防抱死(ABS)","external_name":"Safe_ABS","value":""},{"name":"盲点检测/并线辅助","external_name":"InStat_blindspotdetection","value":""},{"name":"夜视系统","external_name":"InStat_NightVisionSystem","value":""}]},{"group_name":"accessory","name":"辅助/操控配置","params":[{"name":"泊车雷达(车前)","external_name":"UnderPan_PRadar","value":""},{"name":"倒车雷达(车后)","external_name":"UnderPan_RRadar","value":""},{"name":"倒车影像","external_name":"UnderPan_RImage","value":""},{"name":"全景摄像头","external_name":"InStat_PanoramicCamera","value":""},{"name":"定速巡航","external_name":"InStat_SpeedCruise","value":""},{"name":"自适应巡航","external_name":"InStat_Automaticcruise","value":""},{"name":"自动泊车入位","external_name":"InStat_AutoParking","value":""},{"name":"上坡辅助","external_name":"InStat_UphillAuxiliary","value":""},{"name":"自动驻车","external_name":"InStat_AutoPark","value":""},{"name":"陡坡缓降","external_name":"InStat_HDC","value":""},{"name":"遥控驾驶","external_name":"Safe_Remotedriving","value":""}]},{"group_name":"external","name":"外部/防盗配置","params":[{"name":"天窗型式","external_name":"Body_Louver","value":""},{"name":"运动外观套件","external_name":"OutStat_SportsAppearanceKit","value":""},{"name":"铝合金轮圈","external_name":"Aluminum_alloy_wheels # 没有标明","value":""},{"name":"感应行李厢","external_name":"Induction_trunk","value":""},{"name":"车顶行李箱架","external_name":"OutStat_TopSnelf","value":""},{"name":"无钥匙启动系统","external_name":"InStat_AIgnitionSys","value":""},{"name":"无钥匙进入系统","external_name":"nokey_into","value":""},{"name":"遥控启动","external_name":"InStat_RemoteStart","value":""},{"name":"后导流尾翼","external_name":"OutStat_InductEmpennage","value":""}]},{"group_name":"internal","name":"内部配置","params":[{"name":"多功能方向盘","external_name":"InStat_MultiFuncSteer","value":""},{"name":"换挡拨片","external_name":"InStat_SteerEtc","value":""},{"name":"方向盘加热","external_name":"Steering_Wheel_hot","value":""},{"name":"方向盘记忆设置","external_name":"InStat_SteerMomery","value":""},{"name":"方向盘表面材料","external_name":"InStat_SteerMaterial","value":""},{"name":"HUD抬头数字显示","external_name":"InStat_Hud","value":""}]},{"group_name":"seat","name":"座椅配置","params":[{"name":"座椅材料","external_name":"InStat_SeatMaterial","value":""},{"name":"运动座椅","external_name":"InStat_SportSeat","value":""},{"name":"驾驶座腰部支撑调节","external_name":"InStat_DSeatProp","value":""},{"name":"驾驶座肩部支撑调节","external_name":"InStat_AdjustableShoulderSupport","value":""},{"name":"驾驶座座椅调节方式","external_name":"InStat_DSeatTuneType","value":""},{"name":"副驾驶座椅调节方式","external_name":"InStat_DASeatTuneType","value":""},{"name":"电动座椅记忆","external_name":"InStat_ElectricSeatMemory","value":""},{"name":"前排座椅加热","external_name":"Heated_front_seats","value":""},{"name":"后排座椅加热","external_name":"Heated_rear_seats","value":""},{"name":"前排座椅通风","external_name":"The_front_seat_ventilation","value":""},{"name":"后排座椅通风","external_name":"Rear_seat_ventilation","value":""},{"name":"座椅按摩功能","external_name":"InStat_SeatKnead","value":""},{"name":"第三排座椅","external_name":"InStat_3rdRowSeats","value":""}]},{"group_name":"multimedia","name":"多媒体配置","params":[{"name":"GPS导航系统","external_name":"InStat_GPS","value":""},{"name":"中控台液晶屏","external_name":"InStat_CCEscreen","value":""},{"name":"后排液晶屏","external_name":"InStat_BEscreen","value":""},{"name":"蓝牙系统","external_name":"InStat_Bluetooth","value":""},{"name":"无线上网功能","external_name":"InStat_WireLink","value":""},{"name":"车载电视","external_name":"InStat_Video","value":""},{"name":"CD","external_name":"InStat_CDPlayer","value":""},{"name":"DVD","external_name":"InStat_DVDPlayer","value":""}]},{"group_name":"light","name":"灯光配置","params":[{"name":"日间行车灯","external_name":"OutStat_DaytimeRunningLights","value":""},{"name":"前大灯自动开闭","external_name":"OutStat_FLightClose","value":""},{"name":"前雾灯","external_name":"OutStat_FfogLamp","value":""},{"name":"前大灯自动清洗功能","external_name":"OutStat_FLightAutoClean","value":""},{"name":"前大灯随动转向","external_name":"OutStat_FLightSteer","value":""},{"name":"前大灯类型","external_name":"OutStat_FrontLightType","value":""}]},{"group_name":"glass","name":"玻璃/后视镜","params":[{"name":"前电动车窗","external_name":"The_front_power_window","value":""},{"name":"后电动车窗","external_name":"After_the_electric_window","value":""},{"name":"外后视镜电动调节","external_name":"OutStat_ReMirrorElecTune","value":""},{"name":"外后视镜加热功能","external_name":"OutStat_ReMirrorHot","value":""},{"name":"内后视镜防眩目功能","external_name":"OutStat_ReMirrorDazzle","value":""},{"name":"外后视镜电动折叠功能","external_name":"OutStat_ReMirrorFold","value":""},{"name":"外后视镜记忆功能","external_name":"OutStat_ReMirrormemory","value":""},{"name":"后窗遮阳帘","external_name":"OutStat_BackCurtain","value":""},{"name":"后排侧遮阳帘","external_name":"OutStat_SecondRowCurtain","value":""},{"name":"遮阳板化妆镜","external_name":"InStat_FaceMirror","value":""},{"name":"后雨刷器","external_name":"OutStat_BBrushSensor","value":""}]},{"group_name":"refrigeration","name":"空调/冰箱","params":[{"name":"空调控制方式","external_name":"InStat_AirCType","value":""},{"name":"后排独立空调","external_name":"InStat_BAirCSystem","value":""},{"name":"温度分区控制","external_name":"InStat_TemperSubCount","value":""},{"name":"车载冰箱","external_name":"InStat_carFridge","value":""}]}],"config_is_ready":True,"procedure":{"transferRequest":"10","purchaseTax":"1","drivingLicense":"有","registration":"有","annualDue":"2019-10-12","strongInsurance":"2019-10-12","commercialInsurance":"2019-10-12","carInvoice":"有","carWarranty":"过保","key":"2","maintenanceManual":"有","instructions":"有","unHandleIllegal":"无","transferTickets":"有","newPlace":"1","transferFee":"1","freight":"","mentionFee":"","proceduresSpend":"1"},"procedure_is_ready":True},"info_has_changes":True}</t>
+          <t>{'info': {'config': [{'group_name': 'basic', 'name': '基本参数', 'params': [{'name': '车门数(个)', 'external_name': 'Body_Doors', 'value': None}, {'name': '座位数(个)', 'external_name': 'Perf_SeatNum', 'value': None}, {'name': '排量(L)', 'external_name': 'Engine_ExhaustForFloat', 'value': None}, {'name': '燃料类型', 'external_name': 'Oil_FuelType', 'value': None}, {'name': '挡位个数(个)', 'external_name': 'UnderPan_ForwardGearNum', 'value': None}, {'name': '变速箱类型', 'external_name': 'UnderPan_TransmissionType', 'value': None}, {'name': '驱动方式', 'external_name': 'Perf_DriveType', 'value': None}]}, {'group_name': 'security', 'name': '主/被动安全设备', 'params': [{'name': '驾驶位安全气囊', 'external_name': 'Safe_DriverGasBag', 'value': None}, {'name': '副驾驶位安全气囊', 'external_name': 'Safe_SubDriverGasBag', 'value': None}, {'name': '前排侧安全气囊', 'external_name': 'Safe_FsadGasbag', 'value': None}, {'name': '后排侧安全气囊', 'external_name': 'Safe_BsadGasbag', 'value': None}, {'name': '前排头部气囊(气帘)', 'external_name': 'Safe_FheadGasbag', 'value': None}, {'name': '膝部气囊', 'external_name': 'Safe_KneeGasBag', 'value': None}, {'name': '安全带气囊', 'external_name': 'InStat_BeltBag', 'value': None}, {'name': '胎压监测装置', 'external_name': 'UnderPan_TyrePressureWatcher', 'value': None}, {'name': '刹车防抱死(ABS)', 'external_name': 'Safe_ABS', 'value': None}, {'name': '盲点检测/并线辅助', 'external_name': 'InStat_blindspotdetection', 'value': None}, {'name': '夜视系统', 'external_name': 'InStat_NightVisionSystem', 'value': None}]}, {'group_name': 'accessory', 'name': '辅助/操控配置', 'params': [{'name': '泊车雷达(车前)', 'external_name': 'UnderPan_PRadar', 'value': None}, {'name': '倒车雷达(车后)', 'external_name': 'UnderPan_RRadar', 'value': None}, {'name': '倒车影像', 'external_name': 'UnderPan_RImage', 'value': None}, {'name': '全景摄像头', 'external_name': 'InStat_PanoramicCamera', 'value': None}, {'name': '定速巡航', 'external_name': 'InStat_SpeedCruise', 'value': None}, {'name': '自适应巡航', 'external_name': 'InStat_Automaticcruise', 'value': None}, {'name': '自动泊车入位', 'external_name': 'InStat_AutoParking', 'value': None}, {'name': '上坡辅助', 'external_name': 'InStat_UphillAuxiliary', 'value': None}, {'name': '自动驻车', 'external_name': 'InStat_AutoPark', 'value': None}, {'name': '陡坡缓降', 'external_name': 'InStat_HDC', 'value': None}, {'name': '遥控驾驶', 'external_name': 'Safe_Remotedriving', 'value': None}]}, {'group_name': 'external', 'name': '外部/防盗配置', 'params': [{'name': '天窗型式', 'external_name': 'Body_Louver', 'value': None}, {'name': '运动外观套件', 'external_name': 'OutStat_SportsAppearanceKit', 'value': None}, {'name': '铝合金轮圈', 'external_name': 'Aluminum_alloy_wheels # 没有标明', 'value': None}, {'name': '感应行李厢', 'external_name': 'Induction_trunk', 'value': None}, {'name': '车顶行李箱架', 'external_name': 'OutStat_TopSnelf', 'value': None}, {'name': '无钥匙启动系统', 'external_name': 'InStat_AIgnitionSys', 'value': None}, {'name': '无钥匙进入系统', 'external_name': 'nokey_into', 'value': None}, {'name': '遥控启动', 'external_name': 'InStat_RemoteStart', 'value': None}, {'name': '后导流尾翼', 'external_name': 'OutStat_InductEmpennage', 'value': None}]}, {'group_name': 'internal', 'name': '内部配置', 'params': [{'name': '多功能方向盘', 'external_name': 'InStat_MultiFuncSteer', 'value': None}, {'name': '换挡拨片', 'external_name': 'InStat_SteerEtc', 'value': None}, {'name': '方向盘加热', 'external_name': 'Steering_Wheel_hot', 'value': None}, {'name': '方向盘记忆设置', 'external_name': 'InStat_SteerMomery', 'value': None}, {'name': '方向盘表面材料', 'external_name': 'InStat_SteerMaterial', 'value': None}, {'name': 'HUD抬头数字显示', 'external_name': 'InStat_Hud', 'value': None}]}, {'group_name': 'seat', 'name': '座椅配置', 'params': [{'name': '座椅材料', 'external_name': 'InStat_SeatMaterial', 'value': None}, {'name': '运动座椅', 'external_name': 'InStat_SportSeat', 'value': None}, {'name': '驾驶座腰部支撑调节', 'external_name': 'InStat_DSeatProp', 'value': None}, {'name': '驾驶座肩部支撑调节', 'external_name': 'InStat_AdjustableShoulderSupport', 'value': None}, {'name': '驾驶座座椅调节方式', 'external_name': 'InStat_DSeatTuneType', 'value': None}, {'name': '副驾驶座椅调节方式', 'external_name': 'InStat_DASeatTuneType', 'value': None}, {'name': '电动座椅记忆', 'external_name': 'InStat_ElectricSeatMemory', 'value': None}, {'name': '前排座椅加热', 'external_name': 'Heated_front_seats', 'value': None}, {'name': '后排座椅加热', 'external_name': 'Heated_rear_seats', 'value': None}, {'name': '前排座椅通风', 'external_name': 'The_front_seat_ventilation', 'value': None}, {'name': '后排座椅通风', 'external_name': 'Rear_seat_ventilation', 'value': None}, {'name': '座椅按摩功能', 'external_name': 'InStat_SeatKnead', 'value': None}, {'name': '第三排座椅', 'external_name': 'InStat_3rdRowSeats', 'value': None}]}, {'group_name': 'multimedia', 'name': '多媒体配置', 'params': [{'name': 'GPS导航系统', 'external_name': 'InStat_GPS', 'value': None}, {'name': '中控台液晶屏', 'external_name': 'InStat_CCEscreen', 'value': None}, {'name': '后排液晶屏', 'external_name': 'InStat_BEscreen', 'value': None}, {'name': '蓝牙系统', 'external_name': 'InStat_Bluetooth', 'value': None}, {'name': '无线上网功能', 'external_name': 'InStat_WireLink', 'value': None}, {'name': '车载电视', 'external_name': 'InStat_Video', 'value': None}, {'name': 'CD', 'external_name': 'InStat_CDPlayer', 'value': None}, {'name': 'DVD', 'external_name': 'InStat_DVDPlayer', 'value': None}]}, {'group_name': 'light', 'name': '灯光配置', 'params': [{'name': '日间行车灯', 'external_name': 'OutStat_DaytimeRunningLights', 'value': None}, {'name': '前大灯自动开闭', 'external_name': 'OutStat_FLightClose', 'value': None}, {'name': '前雾灯', 'external_name': 'OutStat_FfogLamp', 'value': None}, {'name': '前大灯自动清洗功能', 'external_name': 'OutStat_FLightAutoClean', 'value': None}, {'name': '前大灯随动转向', 'external_name': 'OutStat_FLightSteer', 'value': None}, {'name': '前大灯类型', 'external_name': 'OutStat_FrontLightType', 'value': None}]}, {'group_name': 'glass', 'name': '玻璃/后视镜', 'params': [{'name': '前电动车窗', 'external_name': 'The_front_power_window', 'value': None}, {'name': '后电动车窗', 'external_name': 'After_the_electric_window', 'value': None}, {'name': '外后视镜电动调节', 'external_name': 'OutStat_ReMirrorElecTune', 'value': None}, {'name': '外后视镜加热功能', 'external_name': 'OutStat_ReMirrorHot', 'value': None}, {'name': '内后视镜防眩目功能', 'external_name': 'OutStat_ReMirrorDazzle', 'value': None}, {'name': '外后视镜电动折叠功能', 'external_name': 'OutStat_ReMirrorFold', 'value': None}, {'name': '外后视镜记忆功能', 'external_name': 'OutStat_ReMirrormemory', 'value': None}, {'name': '后窗遮阳帘', 'external_name': 'OutStat_BackCurtain', 'value': None}, {'name': '后排侧遮阳帘', 'external_name': 'OutStat_SecondRowCurtain', 'value': None}, {'name': '遮阳板化妆镜', 'external_name': 'InStat_FaceMirror', 'value': None}, {'name': '后雨刷器', 'external_name': 'OutStat_BBrushSensor', 'value': None}]}, {'group_name': 'refrigeration', 'name': '空调/冰箱', 'params': [{'name': '空调控制方式', 'external_name': 'InStat_AirCType', 'value': None}, {'name': '后排独立空调', 'external_name': 'InStat_BAirCSystem', 'value': None}, {'name': '温度分区控制', 'external_name': 'InStat_TemperSubCount', 'value': None}, {'name': '车载冰箱', 'external_name': 'InStat_carFridge', 'value': None}]}], 'config_is_ready': True, 'procedure_is_ready': False}, 'info_has_changes': False}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'is_details_ready': False, 'is_qymp_details_ready': True}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'is_details_ready': False, 'is_qymp_details_ready': False}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1203,18 +1203,18 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="317.4" r="6">
+    <row customHeight="1" ht="409.5" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>评估线索-评估车辆信息-上传照片</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images</t>
+          <t>评估线索-评估车辆信息-手续信息</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>{"info_has_changes": True, "mask_left_front_image_url": "${img_path}", "left_front_image_url": "${img_path}","mask_left_image_url": "${img_path}", "left_image_url": "${img_path}", "mask_front_chair_image_url": "${img_path}","front_chair_image_url": "${img_path}", "mask_dashboard_image_url": "${img_path}","dashboard_image_url": "${img_path}", "mask_back_chair_image_url": "${img_path}","back_chair_image_url": "${img_path}", "mask_central_control_board_image_url": "${img_path}",                "central_control_board_image_url": "${img_path}", "mask_end_image_url": "${img_path}", "end_image_url": "${img_path}","mask_trunk_bottom_image_url": "${img_path}", "trunk_bottom_image_url": "${img_path}","mask_right_end_image_url": "${img_path}", "right_end_image_url": "${img_path}","mask_engine_compartment_image_url": "${img_path}", "engine_compartment_image_url": "${img_path}","mask_factory_nameplate_image_url": "${img_path}", "factory_nameplate_image_url": "${img_path}", "mask_other_1_image_url": "${img_path}", "other_1_image_url": "${img_path}", "mask_other_2_image_url": "${img_path}","other_2_image_url": "${img_path}", "mask_other_3_image_url": "${img_path}", "other_3_image_url": "${img_path}","mask_other_4_image_url": "${img_path}", "other_4_image_url": "${img_path}", "mask_other_5_image_url": "${img_path}", "other_5_image_url": "${img_path}"}</t>
+          <t>{'info': {'config': [{'group_name': 'basic', 'name': '基本参数', 'params': [{'name': '车门数(个)', 'external_name': 'Body_Doors', 'value': None}, {'name': '座位数(个)', 'external_name': 'Perf_SeatNum', 'value': None}, {'name': '排量(L)', 'external_name': 'Engine_ExhaustForFloat', 'value': None}, {'name': '燃料类型', 'external_name': 'Oil_FuelType', 'value': None}, {'name': '挡位个数(个)', 'external_name': 'UnderPan_ForwardGearNum', 'value': None}, {'name': '变速箱类型', 'external_name': 'UnderPan_TransmissionType', 'value': None}, {'name': '驱动方式', 'external_name': 'Perf_DriveType', 'value': None}]}, {'group_name': 'security', 'name': '主/被动安全设备', 'params': [{'name': '驾驶位安全气囊', 'external_name': 'Safe_DriverGasBag', 'value': None}, {'name': '副驾驶位安全气囊', 'external_name': 'Safe_SubDriverGasBag', 'value': None}, {'name': '前排侧安全气囊', 'external_name': 'Safe_FsadGasbag', 'value': None}, {'name': '后排侧安全气囊', 'external_name': 'Safe_BsadGasbag', 'value': None}, {'name': '前排头部气囊(气帘)', 'external_name': 'Safe_FheadGasbag', 'value': None}, {'name': '膝部气囊', 'external_name': 'Safe_KneeGasBag', 'value': None}, {'name': '安全带气囊', 'external_name': 'InStat_BeltBag', 'value': None}, {'name': '胎压监测装置', 'external_name': 'UnderPan_TyrePressureWatcher', 'value': None}, {'name': '刹车防抱死(ABS)', 'external_name': 'Safe_ABS', 'value': None}, {'name': '盲点检测/并线辅助', 'external_name': 'InStat_blindspotdetection', 'value': None}, {'name': '夜视系统', 'external_name': 'InStat_NightVisionSystem', 'value': None}]}, {'group_name': 'accessory', 'name': '辅助/操控配置', 'params': [{'name': '泊车雷达(车前)', 'external_name': 'UnderPan_PRadar', 'value': None}, {'name': '倒车雷达(车后)', 'external_name': 'UnderPan_RRadar', 'value': None}, {'name': '倒车影像', 'external_name': 'UnderPan_RImage', 'value': None}, {'name': '全景摄像头', 'external_name': 'InStat_PanoramicCamera', 'value': None}, {'name': '定速巡航', 'external_name': 'InStat_SpeedCruise', 'value': None}, {'name': '自适应巡航', 'external_name': 'InStat_Automaticcruise', 'value': None}, {'name': '自动泊车入位', 'external_name': 'InStat_AutoParking', 'value': None}, {'name': '上坡辅助', 'external_name': 'InStat_UphillAuxiliary', 'value': None}, {'name': '自动驻车', 'external_name': 'InStat_AutoPark', 'value': None}, {'name': '陡坡缓降', 'external_name': 'InStat_HDC', 'value': None}, {'name': '遥控驾驶', 'external_name': 'Safe_Remotedriving', 'value': None}]}, {'group_name': 'external', 'name': '外部/防盗配置', 'params': [{'name': '天窗型式', 'external_name': 'Body_Louver', 'value': None}, {'name': '运动外观套件', 'external_name': 'OutStat_SportsAppearanceKit', 'value': None}, {'name': '铝合金轮圈', 'external_name': 'Aluminum_alloy_wheels # 没有标明', 'value': None}, {'name': '感应行李厢', 'external_name': 'Induction_trunk', 'value': None}, {'name': '车顶行李箱架', 'external_name': 'OutStat_TopSnelf', 'value': None}, {'name': '无钥匙启动系统', 'external_name': 'InStat_AIgnitionSys', 'value': None}, {'name': '无钥匙进入系统', 'external_name': 'nokey_into', 'value': None}, {'name': '遥控启动', 'external_name': 'InStat_RemoteStart', 'value': None}, {'name': '后导流尾翼', 'external_name': 'OutStat_InductEmpennage', 'value': None}]}, {'group_name': 'internal', 'name': '内部配置', 'params': [{'name': '多功能方向盘', 'external_name': 'InStat_MultiFuncSteer', 'value': None}, {'name': '换挡拨片', 'external_name': 'InStat_SteerEtc', 'value': None}, {'name': '方向盘加热', 'external_name': 'Steering_Wheel_hot', 'value': None}, {'name': '方向盘记忆设置', 'external_name': 'InStat_SteerMomery', 'value': None}, {'name': '方向盘表面材料', 'external_name': 'InStat_SteerMaterial', 'value': None}, {'name': 'HUD抬头数字显示', 'external_name': 'InStat_Hud', 'value': None}]}, {'group_name': 'seat', 'name': '座椅配置', 'params': [{'name': '座椅材料', 'external_name': 'InStat_SeatMaterial', 'value': None}, {'name': '运动座椅', 'external_name': 'InStat_SportSeat', 'value': None}, {'name': '驾驶座腰部支撑调节', 'external_name': 'InStat_DSeatProp', 'value': None}, {'name': '驾驶座肩部支撑调节', 'external_name': 'InStat_AdjustableShoulderSupport', 'value': None}, {'name': '驾驶座座椅调节方式', 'external_name': 'InStat_DSeatTuneType', 'value': None}, {'name': '副驾驶座椅调节方式', 'external_name': 'InStat_DASeatTuneType', 'value': None}, {'name': '电动座椅记忆', 'external_name': 'InStat_ElectricSeatMemory', 'value': None}, {'name': '前排座椅加热', 'external_name': 'Heated_front_seats', 'value': None}, {'name': '后排座椅加热', 'external_name': 'Heated_rear_seats', 'value': None}, {'name': '前排座椅通风', 'external_name': 'The_front_seat_ventilation', 'value': None}, {'name': '后排座椅通风', 'external_name': 'Rear_seat_ventilation', 'value': None}, {'name': '座椅按摩功能', 'external_name': 'InStat_SeatKnead', 'value': None}, {'name': '第三排座椅', 'external_name': 'InStat_3rdRowSeats', 'value': None}]}, {'group_name': 'multimedia', 'name': '多媒体配置', 'params': [{'name': 'GPS导航系统', 'external_name': 'InStat_GPS', 'value': None}, {'name': '中控台液晶屏', 'external_name': 'InStat_CCEscreen', 'value': None}, {'name': '后排液晶屏', 'external_name': 'InStat_BEscreen', 'value': None}, {'name': '蓝牙系统', 'external_name': 'InStat_Bluetooth', 'value': None}, {'name': '无线上网功能', 'external_name': 'InStat_WireLink', 'value': None}, {'name': '车载电视', 'external_name': 'InStat_Video', 'value': None}, {'name': 'CD', 'external_name': 'InStat_CDPlayer', 'value': None}, {'name': 'DVD', 'external_name': 'InStat_DVDPlayer', 'value': None}]}, {'group_name': 'light', 'name': '灯光配置', 'params': [{'name': '日间行车灯', 'external_name': 'OutStat_DaytimeRunningLights', 'value': None}, {'name': '前大灯自动开闭', 'external_name': 'OutStat_FLightClose', 'value': None}, {'name': '前雾灯', 'external_name': 'OutStat_FfogLamp', 'value': None}, {'name': '前大灯自动清洗功能', 'external_name': 'OutStat_FLightAutoClean', 'value': None}, {'name': '前大灯随动转向', 'external_name': 'OutStat_FLightSteer', 'value': None}, {'name': '前大灯类型', 'external_name': 'OutStat_FrontLightType', 'value': None}]}, {'group_name': 'glass', 'name': '玻璃/后视镜', 'params': [{'name': '前电动车窗', 'external_name': 'The_front_power_window', 'value': None}, {'name': '后电动车窗', 'external_name': 'After_the_electric_window', 'value': None}, {'name': '外后视镜电动调节', 'external_name': 'OutStat_ReMirrorElecTune', 'value': None}, {'name': '外后视镜加热功能', 'external_name': 'OutStat_ReMirrorHot', 'value': None}, {'name': '内后视镜防眩目功能', 'external_name': 'OutStat_ReMirrorDazzle', 'value': None}, {'name': '外后视镜电动折叠功能', 'external_name': 'OutStat_ReMirrorFold', 'value': None}, {'name': '外后视镜记忆功能', 'external_name': 'OutStat_ReMirrormemory', 'value': None}, {'name': '后窗遮阳帘', 'external_name': 'OutStat_BackCurtain', 'value': None}, {'name': '后排侧遮阳帘', 'external_name': 'OutStat_SecondRowCurtain', 'value': None}, {'name': '遮阳板化妆镜', 'external_name': 'InStat_FaceMirror', 'value': None}, {'name': '后雨刷器', 'external_name': 'OutStat_BBrushSensor', 'value': None}]}, {'group_name': 'refrigeration', 'name': '空调/冰箱', 'params': [{'name': '空调控制方式', 'external_name': 'InStat_AirCType', 'value': None}, {'name': '后排独立空调', 'external_name': 'InStat_BAirCSystem', 'value': None}, {'name': '温度分区控制', 'external_name': 'InStat_TemperSubCount', 'value': None}, {'name': '车载冰箱', 'external_name': 'InStat_carFridge', 'value': None}]}], 'config_is_ready': True, 'procedure': {'transferRequest': '10', 'purchaseTax': '1', 'drivingLicense': '有', 'registration': '有', 'annualDue': '2019-10-14', 'strongInsurance': '2019-10-14', 'commercialInsurance': '2019-10-14', 'carInvoice': '有', 'carWarranty': '过保', 'key': '2', 'maintenanceManual': '有', 'instructions': '有', 'unHandleIllegal': '无', 'transferTickets': '有', 'newPlace': '1', 'transferFee': '1', 'freight': '', 'mentionFee': '', 'proceduresSpend': '1'}, 'procedure_is_ready': True}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'is_images_ready': True}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'is_details_ready': False, 'is_qymp_details_ready': True}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1246,18 +1246,18 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="409.5" r="7">
+    <row customHeight="1" ht="317.4" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>评估线索-评估检测信息-车头</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection</t>
+          <t>评估线索-评估车辆信息-上传照片</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>{"inspection":{"head":[{"id":1,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"前保险杠","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":2,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左前大灯","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":3,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右前大灯","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":4,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["waterCheck","skeletonDamage"],"__keyPath":{"selected":True}}],"note":"前横梁","category":["waterCheck","skeletonDamage"],"defaultTitle":["正常"]},{"id":77,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"前防撞梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":5,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"水箱支架","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":6,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左前纵梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":7,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右前纵梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":8,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左前避震器座","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":9,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右前避震器座","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":10,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"防火墙","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":11,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"前挡风玻璃","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":12,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["metalRepair"],"__keyPath":{"selected":True}}],"note":"车顶","category":["metalRepair"],"defaultTitle":["正常"]},{"id":13,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage","metalRepair"],"__keyPath":{"selected":True}}],"note":"引擎盖","category":["appearanceDamage","metalRepair"],"defaultTitle":["正常"]},{"id":14,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"车底板","category":["skeletonDamage"],"defaultTitle":["正常"]}]},"info_has_changes":True}</t>
+          <t>{"info_has_changes": True, "mask_left_front_image_url": "${img_path}", "left_front_image_url": "${img_path}","mask_left_image_url": "${img_path}", "left_image_url": "${img_path}", "mask_front_chair_image_url": "${img_path}","front_chair_image_url": "${img_path}", "mask_dashboard_image_url": "${img_path}","dashboard_image_url": "${img_path}", "mask_back_chair_image_url": "${img_path}","back_chair_image_url": "${img_path}", "mask_central_control_board_image_url": "${img_path}",                "central_control_board_image_url": "${img_path}", "mask_end_image_url": "${img_path}", "end_image_url": "${img_path}","mask_trunk_bottom_image_url": "${img_path}", "trunk_bottom_image_url": "${img_path}","mask_right_end_image_url": "${img_path}", "right_end_image_url": "${img_path}","mask_engine_compartment_image_url": "${img_path}", "engine_compartment_image_url": "${img_path}","mask_factory_nameplate_image_url": "${img_path}", "factory_nameplate_image_url": "${img_path}", "mask_other_1_image_url": "${img_path}", "other_1_image_url": "${img_path}", "mask_other_2_image_url": "${img_path}","other_2_image_url": "${img_path}", "mask_other_3_image_url": "${img_path}", "other_3_image_url": "${img_path}","mask_other_4_image_url": "${img_path}", "other_4_image_url": "${img_path}", "mask_other_5_image_url": "${img_path}", "other_5_image_url": "${img_path}"}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'is_images_ready': True}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="386.4" r="8">
+    <row customHeight="1" ht="409.5" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>评估线索-评估检测信息-左侧</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
+          <t>评估线索-评估检测信息-车头</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection</t>
         </is>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>{"inspection":{"left":[{"id":15,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["metalRepair","appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左前叶子板","category":["metalRepair","appearanceDamage"],"defaultTitle":["正常"]},{"id":16,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左前轮毂","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":17,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左前轮胎","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":18,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左后视镜","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":19,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage","metalRepair"],"__keyPath":{"selected":True}}],"note":"左前门","category":["appearanceDamage","metalRepair"],"defaultTitle":["正常"]},{"id":78,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左侧中底板纵梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":20,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左A柱","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":21,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage","metalRepair"],"__keyPath":{"selected":True}}],"note":"左后门","category":["appearanceDamage","metalRepair"],"defaultTitle":["正常"]},{"id":22,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左B柱","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":23,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左C柱","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":24,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage","metalRepair"],"__keyPath":{"selected":True}}],"note":"左后叶子板","category":["appearanceDamage","metalRepair"],"defaultTitle":["正常"]},{"id":25,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左后轮毂","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":26,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左后轮胎","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":27,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左裙边","category":["appearanceDamage"],"defaultTitle":["正常"]}]},"info_has_changes":True}</t>
+          <t>{'inspection': {'head': [{'id': 1, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '前保险杠', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 2, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左前大灯', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 3, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右前大灯', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 4, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['waterCheck', 'skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '前横梁', 'category': ['waterCheck', 'skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 77, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '前防撞梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 5, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '水箱支架', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 6, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左前纵梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 7, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右前纵梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 8, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左前避震器座', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 9, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右前避震器座', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 10, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '防火墙', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 11, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '前挡风玻璃', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 12, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['metalRepair'], '__keyPath': {'selected': True}}], 'note': '车顶', 'category': ['metalRepair'], 'defaultTitle': ['正常']}, {'id': 13, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage', 'metalRepair'], '__keyPath': {'selected': True}}], 'note': '引擎盖', 'category': ['appearanceDamage', 'metalRepair'], 'defaultTitle': ['正常']}, {'id': 14, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '车底板', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}]}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="248.4" r="9">
+    <row customHeight="1" ht="386.4" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>评估线索-评估检测信息-车尾</t>
+          <t>评估线索-评估检测信息-左侧</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>{"inspection":{"tail":[{"id":28,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"左后大灯","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":29,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右后大灯","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":79,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"后横梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":80,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"左后纵梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":81,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右后纵梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":82,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"后防撞梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":30,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["metalRepair","appearanceDamage"],"__keyPath":{"selected":True}}],"note":"后行李箱盖","category":["metalRepair","appearanceDamage"],"defaultTitle":["正常"]},{"id":31,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"后保险杠","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":32,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"后挡风玻璃","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":33,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"备胎","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":34,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"随车工具","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":35,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage","waterCheck"],"__keyPath":{"selected":True}}],"note":"备胎室","category":["skeletonDamage","waterCheck"],"defaultTitle":["正常"]}]},"info_has_changes":True}</t>
+          <t>{'inspection': {'left': [{'id': 15, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['metalRepair', 'appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左前叶子板', 'category': ['metalRepair', 'appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 16, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左前轮毂', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 17, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左前轮胎', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 18, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左后视镜', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 19, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage', 'metalRepair'], '__keyPath': {'selected': True}}], 'note': '左前门', 'category': ['appearanceDamage', 'metalRepair'], 'defaultTitle': ['正常']}, {'id': 78, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左侧中底板纵梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 20, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左A柱', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 21, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage', 'metalRepair'], '__keyPath': {'selected': True}}], 'note': '左后门', 'category': ['appearanceDamage', 'metalRepair'], 'defaultTitle': ['正常']}, {'id': 22, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左B柱', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 23, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左C柱', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 24, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage', 'metalRepair'], '__keyPath': {'selected': True}}], 'note': '左后叶子板', 'category': ['appearanceDamage', 'metalRepair'], 'defaultTitle': ['正常']}, {'id': 25, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左后轮毂', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 26, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左后轮胎', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 27, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左裙边', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}]}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="386.4" r="10">
+    <row customHeight="1" ht="248.4" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>评估线索-评估检测信息-右侧</t>
+          <t>评估线索-评估检测信息-车尾</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>{"inspection":{"right":[{"id":36,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage","metalRepair"],"__keyPath":{"selected":True}}],"note":"右后叶子板","category":["appearanceDamage","metalRepair"],"defaultTitle":["正常"]},{"id":37,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右后轮毂","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":38,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右后轮胎","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":39,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage","metalRepair"],"__keyPath":{"selected":True}}],"note":"右后门","category":["appearanceDamage","metalRepair"],"defaultTitle":["正常"]},{"id":83,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右侧中底板纵梁","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":40,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右C柱","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":41,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右B柱","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":42,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["metalRepair","appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右前门","category":["metalRepair","appearanceDamage"],"defaultTitle":["正常"]},{"id":43,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["skeletonDamage"],"__keyPath":{"selected":True}}],"note":"右A柱","category":["skeletonDamage"],"defaultTitle":["正常"]},{"id":44,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右后视镜","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":45,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["metalRepair","appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右前叶子板","category":["metalRepair","appearanceDamage"],"defaultTitle":["正常"]},{"id":46,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右前轮毂","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":47,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右前轮胎","category":["appearanceDamage"],"defaultTitle":["正常"]},{"id":48,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["appearanceDamage"],"__keyPath":{"selected":True}}],"note":"右裙边","category":["appearanceDamage"],"defaultTitle":["正常"]}]},"info_has_changes":True}</t>
+          <t>{'inspection': {'tail': [{'id': 28, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '左后大灯', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 29, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右后大灯', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 79, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '后横梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 80, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '左后纵梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 81, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右后纵梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 82, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '后防撞梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 30, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['metalRepair', 'appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '后行李箱盖', 'category': ['metalRepair', 'appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 31, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '后保险杠', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 32, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '后挡风玻璃', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 33, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '备胎', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 34, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '随车工具', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 35, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '备胎室', 'category': ['skeletonDamage', 'waterCheck'], 'defaultTitle': ['正常']}]}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'right': [{'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 36, 'note': '右后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 37, 'note': '右后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 38, 'note': '右后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 39, 'note': '右后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 83, 'note': '右侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 40, 'note': '右C柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 41, 'note': '右B柱', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 42, 'note': '右前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 43, 'note': '右A柱', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 44, 'note': '右后视镜', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 45, 'note': '右前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 46, 'note': '右前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 47, 'note': '右前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 48, 'note': '右裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="409.5" r="11">
+    <row customHeight="1" ht="386.4" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>评估线索-评估检测信息-机械内饰</t>
+          <t>评估线索-评估检测信息-右侧</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>{"inspection":{"machine_interior":[{"id":49,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["machines"],"__keyPath":{"selected":True}}],"note":"发动机","category":["machines"],"defaultTitle":["正常"]},{"id":50,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["machines"],"__keyPath":{"selected":True}}],"note":"变速箱","category":["machines"],"defaultTitle":["正常"]},{"id":51,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["machines"],"__keyPath":{"selected":True}}],"note":"转向机","category":["machines"],"defaultTitle":["正常"]},{"id":52,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["machines"],"__keyPath":{"selected":True}}],"note":"减震器","category":["machines"],"defaultTitle":["正常"]},{"id":53,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["machines"],"__keyPath":{"selected":True}}],"note":"消音器","category":["machines"],"defaultTitle":["正常"]},{"id":54,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"座椅","category":["inDecoration"],"defaultTitle":["正常"]},{"id":55,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"安全带","category":["inDecoration","waterCheck"],"defaultTitle":["正常"]},{"id":84,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"主驾驶位安全气囊","category":["inDecoration"],"defaultTitle":["正常"]},{"id":85,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"副驾驶位安全气囊","category":["inDecoration"],"defaultTitle":["正常"]},{"id":56,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration","waterCheck"],"__keyPath":{"selected":True}}],"note":"顶蓬","category":["inDecoration","waterCheck"],"defaultTitle":["正常"]},{"id":57,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"门饰板","category":["inDecoration"],"defaultTitle":["正常"]},{"id":58,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration","waterCheck"],"__keyPath":{"selected":True}}],"note":"地毯","category":["inDecoration","waterCheck"],"defaultTitle":["正常"]},{"id":59,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"换挡杆","category":["inDecoration"],"defaultTitle":["正常"]},{"id":60,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"中央控制台","category":["inDecoration"],"defaultTitle":["正常"]},{"id":61,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["inDecoration"],"__keyPath":{"selected":True}}],"note":"方向盘","category":["inDecoration"],"defaultTitle":["正常"]},{"id":62,"title":["无泥沙/无更换过/无清理痕迹"],"damageList":[{"key":"1","value":"无泥沙/无更换过/无清理痕迹","selected":True,"category":["waterCheck","inDecoration"],"__keyPath":{"selected":True}}],"note":"保险盒","category":["waterCheck","inDecoration"],"defaultTitle":["无泥沙/无更换过/无清理痕迹"]},{"id":63,"title":["无水渍或泥沙"],"damageList":[{"key":"1","value":"无水渍或泥沙","selected":True,"category":["waterCheck"],"__keyPath":{"selected":True}}],"note":"EUC接口处","category":["waterCheck"],"defaultTitle":["无水渍或泥沙"]},{"id":64,"title":["无锈迹"],"damageList":[{"key":"1","value":"无锈迹","selected":True,"category":["waterCheck"],"__keyPath":{"selected":True}}],"note":"点烟器底座","category":["waterCheck"],"defaultTitle":["无锈迹"]},{"id":65,"title":["无水渍或泥沙"],"damageList":[{"key":"1","value":"无水渍或泥沙","selected":True,"category":["waterCheck"],"__keyPath":{"selected":True}}],"note":"烟灰缸底座","category":["waterCheck"],"defaultTitle":["无水渍或泥沙"]},{"id":66,"title":["无霉味/无水渍或泥沙"],"damageList":[{"key":"1","value":"无霉味/无水渍或泥沙","selected":True,"category":["waterCheck"],"__keyPath":{"selected":True}}],"note":"驾驶舱和后备箱内","category":["waterCheck"],"defaultTitle":["无霉味/无水渍或泥沙"]},{"id":67,"title":["无水渍或泥沙"],"damageList":[{"key":"1","value":"无水渍或泥沙","selected":True,"category":["waterCheck"],"__keyPath":{"selected":True}}],"note":"后排座椅坐垫底部","category":["waterCheck"],"defaultTitle":["无水渍或泥沙"]},{"id":68,"title":["无火烧或烟熏"],"damageList":[{"key":"1","value":"无火烧或烟熏","selected":True,"category":["fireCheck"],"__keyPath":{"selected":True}}],"note":"发动机线束及橡胶制品","category":["fireCheck"],"defaultTitle":["无火烧或烟熏"]},{"id":69,"title":["无火烧或烟熏"],"damageList":[{"key":"1","value":"无火烧或烟熏","selected":True,"category":["fireCheck"],"__keyPath":{"selected":True}}],"note":"车辆覆盖件及驾驶舱","category":["fireCheck"],"defaultTitle":["无火烧或烟熏"]}]},"info_has_changes":True}</t>
+          <t>{'inspection': {'right': [{'id': 36, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage', 'metalRepair'], '__keyPath': {'selected': True}}], 'note': '右后叶子板', 'category': ['appearanceDamage', 'metalRepair'], 'defaultTitle': ['正常']}, {'id': 37, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右后轮毂', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 38, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右后轮胎', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 39, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage', 'metalRepair'], '__keyPath': {'selected': True}}], 'note': '右后门', 'category': ['appearanceDamage', 'metalRepair'], 'defaultTitle': ['正常']}, {'id': 83, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右侧中底板纵梁', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 40, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右C柱', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 41, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右B柱', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 42, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['metalRepair', 'appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右前门', 'category': ['metalRepair', 'appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 43, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['skeletonDamage'], '__keyPath': {'selected': True}}], 'note': '右A柱', 'category': ['skeletonDamage'], 'defaultTitle': ['正常']}, {'id': 44, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右后视镜', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 45, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['metalRepair', 'appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右前叶子板', 'category': ['metalRepair', 'appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 46, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右前轮毂', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 47, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右前轮胎', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}, {'id': 48, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['appearanceDamage'], '__keyPath': {'selected': True}}], 'note': '右裙边', 'category': ['appearanceDamage'], 'defaultTitle': ['正常']}]}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'machine_interior': [{'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 49, 'note': '发动机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 50, 'note': '变速箱', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 51, 'note': '转向机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 52, 'note': '减震器', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 53, 'note': '消音器', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 54, 'note': '座椅', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 55, 'note': '安全带', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 84, 'note': '主驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 85, 'note': '副驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 56, 'note': '顶蓬', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 57, 'note': '门饰板', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 58, 'note': '地毯', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 59, 'note': '换挡杆', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 60, 'note': '中央控制台', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 61, 'note': '方向盘', 'title': ['正常']}, {'category': ['waterCheck', 'inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'inDecoration'], 'key': '1', 'selected': True, 'value': '无泥沙/无更换过/无清理痕迹'}], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹'], 'id': 62, 'note': '保险盒', 'title': ['无泥沙/无更换过/无清理痕迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 63, 'note': 'EUC接口处', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无锈迹'}], 'defaultTitle': ['无锈迹'], 'id': 64, 'note': '点烟器底座', 'title': ['无锈迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 65, 'note': '烟灰缸底座', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无霉味/无水渍或泥沙'}], 'defaultTitle': ['无霉味/无水渍或泥沙'], 'id': 66, 'note': '驾驶舱和后备箱内', 'title': ['无霉味/无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 67, 'note': '后排座椅坐垫底部', 'title': ['无水渍或泥沙']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 68, 'note': '发动机线束及橡胶制品', 'title': ['无火烧或烟熏']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 69, 'note': '车辆覆盖件及驾驶舱', 'title': ['无火烧或烟熏']}], 'right': [{'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 36, 'note': '右后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 37, 'note': '右后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 38, 'note': '右后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 39, 'note': '右后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 83, 'note': '右侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 40, 'note': '右C柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 41, 'note': '右B柱', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 42, 'note': '右前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 43, 'note': '右A柱', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 44, 'note': '右后视镜', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 45, 'note': '右前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 46, 'note': '右前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 47, 'note': '右前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 48, 'note': '右裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'right': [{'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 36, 'note': '右后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 37, 'note': '右后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 38, 'note': '右后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 39, 'note': '右后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 83, 'note': '右侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 40, 'note': '右C柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 41, 'note': '右B柱', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 42, 'note': '右前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 43, 'note': '右A柱', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 44, 'note': '右后视镜', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 45, 'note': '右前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 46, 'note': '右前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 47, 'note': '右前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 48, 'note': '右裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1461,16 +1461,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="220.8" r="12">
+    <row customHeight="1" ht="409.5" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>评估线索-评估检测信息-电器</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
+          <t>评估线索-评估检测信息-机械内饰</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection</t>
         </is>
@@ -1482,7 +1482,8 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>{"inspection":{"appliance":[{"id":70,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["waterCheck","electrical"],"__keyPath":{"selected":True}}],"note":"音响","category":["waterCheck","electrical"],"defaultTitle":["正常"]},{"id":71,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["electrical"],"__keyPath":{"selected":True}}],"note":"导航","category":["electrical"],"defaultTitle":["正常"]},{"id":72,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["electrical"],"__keyPath":{"selected":True}}],"note":"电动后视镜","category":["electrical"],"defaultTitle":["正常"]},{"id":73,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["electrical"],"__keyPath":{"selected":True}}],"note":"电动车窗","category":["electrical"],"defaultTitle":["正常"]},{"id":74,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["electrical"],"__keyPath":{"selected":True}}],"note":"天窗","category":["electrical"],"defaultTitle":["正常"]},{"id":75,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["electrical"],"__keyPath":{"selected":True}}],"note":"空调","category":["electrical"],"defaultTitle":["正常"]},{"id":76,"title":["正常"],"damageList":[{"key":"1","value":"正常","selected":True,"category":["electrical"],"__keyPath":{"selected":True}}],"note":"仪表灯","category":["electrical"],"defaultTitle":["正常"]}]},"info_has_changes":True}</t>
+          <t>{'inspection': {'machine_interior': [{'id': 49, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '发动机', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 50, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '变速箱', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 51, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '转向机', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 52, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '减震器', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 53, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '消音器', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 54, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '座椅', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 55, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '安全带', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 84, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '主驾驶位安全气囊', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 85, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '副驾驶位安全气囊', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 56, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '顶蓬', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 57, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '门饰板', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 58, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '地毯', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 59, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '换挡杆', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 60, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '中央控制台', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 61, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '方向盘', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 62, 'title': ['无泥沙/无更换过/无清理痕迹'], 'damageList': [{'key': '1', 'value': '无泥沙/无更换过/无清理痕迹', 'selected': True, 'category': ['waterCheck', 'inDecoration'], '__keyPath': {'selected': True}}], 'note': '保险盒', 'category': ['waterCheck', 'inDecoration'], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹']}, {'id': 63, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': 'EUC接口处', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 64, 'title': ['无锈迹'], 'damageList': [{'key': '1', 'value': '无锈迹', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '点烟器底座', 'category': ['waterCheck'], 'defaultTitle': ['无锈迹']}, {'id': 65, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '烟灰缸底座', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 66, 'title': ['无霉味/无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无霉味/无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '驾驶舱和后备箱内', 'category': ['waterCheck'], 'defaultTitle': ['无霉味/无水渍或泥沙']}, {'id': 67, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '后排座椅坐垫底部', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 68, 'title': ['无火烧或烟熏'], 'damageList': [{'key': '1', 'value': '无火烧或烟熏', 'selected': True, 'category': ['fireCheck'], '__keyPath': {'selected': True}}], 'note': '发动机线束及橡胶制品', 'category': ['fireCheck'], 'defaultTitle': ['无火烧或烟熏']}, {'id': 69, 'title': ['无火烧或烟熏'], 'damageList': [{'key': '1', 'value': '无火烧或烟熏', 'selected': True, 'category': ['fireCheck'], '__keyPath': {'selected': True}}], 'note': '车辆覆盖件及驾驶舱', 'category': ['fireCheck'], 'defaultTitle': ['无火烧或烟熏']}]}, 'info_has_changes': True}
+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'inspection': {'appliance': [{'category': ['waterCheck', 'electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 70, 'note': '音响', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 71, 'note': '导航', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 72, 'note': '电动后视镜', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 73, 'note': '电动车窗', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 74, 'note': '天窗', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 75, 'note': '空调', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 76, 'note': '仪表灯', 'title': ['正常']}], 'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'machine_interior': [{'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 49, 'note': '发动机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 50, 'note': '变速箱', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 51, 'note': '转向机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 52, 'note': '减震器', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 53, 'note': '消音器', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 54, 'note': '座椅', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 55, 'note': '安全带', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 84, 'note': '主驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 85, 'note': '副驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 56, 'note': '顶蓬', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 57, 'note': '门饰板', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 58, 'note': '地毯', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 59, 'note': '换挡杆', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 60, 'note': '中央控制台', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 61, 'note': '方向盘', 'title': ['正常']}, {'category': ['waterCheck', 'inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'inDecoration'], 'key': '1', 'selected': True, 'value': '无泥沙/无更换过/无清理痕迹'}], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹'], 'id': 62, 'note': '保险盒', 'title': ['无泥沙/无更换过/无清理痕迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 63, 'note': 'EUC接口处', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无锈迹'}], 'defaultTitle': ['无锈迹'], 'id': 64, 'note': '点烟器底座', 'title': ['无锈迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 65, 'note': '烟灰缸底座', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无霉味/无水渍或泥沙'}], 'defaultTitle': ['无霉味/无水渍或泥沙'], 'id': 66, 'note': '驾驶舱和后备箱内', 'title': ['无霉味/无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 67, 'note': '后排座椅坐垫底部', 'title': ['无水渍或泥沙']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 68, 'note': '发动机线束及橡胶制品', 'title': ['无火烧或烟熏']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 69, 'note': '车辆覆盖件及驾驶舱', 'title': ['无火烧或烟熏']}], 'right': [{'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 36, 'note': '右后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 37, 'note': '右后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 38, 'note': '右后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 39, 'note': '右后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 83, 'note': '右侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 40, 'note': '右C柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 41, 'note': '右B柱', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 42, 'note': '右前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 43, 'note': '右A柱', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 44, 'note': '右后视镜', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 45, 'note': '右前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 46, 'note': '右前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 47, 'note': '右前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 48, 'note': '右裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': True}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'inspection': {'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'machine_interior': [{'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 49, 'note': '发动机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 50, 'note': '变速箱', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 51, 'note': '转向机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 52, 'note': '减震器', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 53, 'note': '消音器', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 54, 'note': '座椅', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 55, 'note': '安全带', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 84, 'note': '主驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 85, 'note': '副驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 56, 'note': '顶蓬', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 57, 'note': '门饰板', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 58, 'note': '地毯', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 59, 'note': '换挡杆', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 60, 'note': '中央控制台', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 61, 'note': '方向盘', 'title': ['正常']}, {'category': ['waterCheck', 'inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'inDecoration'], 'key': '1', 'selected': True, 'value': '无泥沙/无更换过/无清理痕迹'}], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹'], 'id': 62, 'note': '保险盒', 'title': ['无泥沙/无更换过/无清理痕迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 63, 'note': 'EUC接口处', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无锈迹'}], 'defaultTitle': ['无锈迹'], 'id': 64, 'note': '点烟器底座', 'title': ['无锈迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 65, 'note': '烟灰缸底座', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无霉味/无水渍或泥沙'}], 'defaultTitle': ['无霉味/无水渍或泥沙'], 'id': 66, 'note': '驾驶舱和后备箱内', 'title': ['无霉味/无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 67, 'note': '后排座椅坐垫底部', 'title': ['无水渍或泥沙']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 68, 'note': '发动机线束及橡胶制品', 'title': ['无火烧或烟熏']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 69, 'note': '车辆覆盖件及驾驶舱', 'title': ['无火烧或烟熏']}], 'right': [{'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 36, 'note': '右后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 37, 'note': '右后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 38, 'note': '右后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 39, 'note': '右后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 83, 'note': '右侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 40, 'note': '右C柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 41, 'note': '右B柱', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 42, 'note': '右前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 43, 'note': '右A柱', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 44, 'note': '右后视镜', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 45, 'note': '右前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 46, 'note': '右前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 47, 'note': '右前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 48, 'note': '右裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': False}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1504,18 +1505,18 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row customHeight="1" ht="220.8" r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>评估线索-评估简述</t>
+          <t>评估线索-评估检测信息-电器</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/qymp_remark</t>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1525,7 +1526,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>{"note":"接口测试","info_has_changes":True}</t>
+          <t>{'inspection': {'appliance': [{'id': 70, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['waterCheck', 'electrical'], '__keyPath': {'selected': True}}], 'note': '音响', 'category': ['waterCheck', 'electrical'], 'defaultTitle': ['正常']}, {'id': 71, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['electrical'], '__keyPath': {'selected': True}}], 'note': '导航', 'category': ['electrical'], 'defaultTitle': ['正常']}, {'id': 72, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['electrical'], '__keyPath': {'selected': True}}], 'note': '电动后视镜', 'category': ['electrical'], 'defaultTitle': ['正常']}, {'id': 73, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['electrical'], '__keyPath': {'selected': True}}], 'note': '电动车窗', 'category': ['electrical'], 'defaultTitle': ['正常']}, {'id': 74, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['electrical'], '__keyPath': {'selected': True}}], 'note': '天窗', 'category': ['electrical'], 'defaultTitle': ['正常']}, {'id': 75, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['electrical'], '__keyPath': {'selected': True}}], 'note': '空调', 'category': ['electrical'], 'defaultTitle': ['正常']}, {'id': 76, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['electrical'], '__keyPath': {'selected': True}}], 'note': '仪表灯', 'category': ['electrical'], 'defaultTitle': ['正常']}]}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1538,7 +1539,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'is_details_ready': True, 'is_qymp_note_ready': True}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'inspection': {'appliance': [{'category': ['waterCheck', 'electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 70, 'note': '音响', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 71, 'note': '导航', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 72, 'note': '电动后视镜', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 73, 'note': '电动车窗', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 74, 'note': '天窗', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 75, 'note': '空调', 'title': ['正常']}, {'category': ['electrical'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['electrical'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 76, 'note': '仪表灯', 'title': ['正常']}], 'head': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 1, 'note': '前保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 2, 'note': '左前大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 3, 'note': '右前大灯', 'title': ['正常']}, {'category': ['waterCheck', 'skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 4, 'note': '前横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 77, 'note': '前防撞梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 5, 'note': '水箱支架', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 6, 'note': '左前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 7, 'note': '右前纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 8, 'note': '左前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 9, 'note': '右前避震器座', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 10, 'note': '防火墙', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 11, 'note': '前挡风玻璃', 'title': ['正常']}, {'category': ['metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 12, 'note': '车顶', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 13, 'note': '引擎盖', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 14, 'note': '车底板', 'title': ['正常']}], 'left': [{'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 15, 'note': '左前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 16, 'note': '左前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 17, 'note': '左前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 18, 'note': '左后视镜', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 19, 'note': '左前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 78, 'note': '左侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 20, 'note': '左A柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 21, 'note': '左后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 22, 'note': '左B柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 23, 'note': '左C柱', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 24, 'note': '左后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 25, 'note': '左后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 26, 'note': '左后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 27, 'note': '左裙边', 'title': ['正常']}], 'machine_interior': [{'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 49, 'note': '发动机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 50, 'note': '变速箱', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 51, 'note': '转向机', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 52, 'note': '减震器', 'title': ['正常']}, {'category': ['machines'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['machines'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 53, 'note': '消音器', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 54, 'note': '座椅', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 55, 'note': '安全带', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 84, 'note': '主驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 85, 'note': '副驾驶位安全气囊', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 56, 'note': '顶蓬', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 57, 'note': '门饰板', 'title': ['正常']}, {'category': ['inDecoration', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 58, 'note': '地毯', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 59, 'note': '换挡杆', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 60, 'note': '中央控制台', 'title': ['正常']}, {'category': ['inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['inDecoration'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 61, 'note': '方向盘', 'title': ['正常']}, {'category': ['waterCheck', 'inDecoration'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck', 'inDecoration'], 'key': '1', 'selected': True, 'value': '无泥沙/无更换过/无清理痕迹'}], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹'], 'id': 62, 'note': '保险盒', 'title': ['无泥沙/无更换过/无清理痕迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 63, 'note': 'EUC接口处', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无锈迹'}], 'defaultTitle': ['无锈迹'], 'id': 64, 'note': '点烟器底座', 'title': ['无锈迹']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 65, 'note': '烟灰缸底座', 'title': ['无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无霉味/无水渍或泥沙'}], 'defaultTitle': ['无霉味/无水渍或泥沙'], 'id': 66, 'note': '驾驶舱和后备箱内', 'title': ['无霉味/无水渍或泥沙']}, {'category': ['waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['waterCheck'], 'key': '1', 'selected': True, 'value': '无水渍或泥沙'}], 'defaultTitle': ['无水渍或泥沙'], 'id': 67, 'note': '后排座椅坐垫底部', 'title': ['无水渍或泥沙']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 68, 'note': '发动机线束及橡胶制品', 'title': ['无火烧或烟熏']}, {'category': ['fireCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['fireCheck'], 'key': '1', 'selected': True, 'value': '无火烧或烟熏'}], 'defaultTitle': ['无火烧或烟熏'], 'id': 69, 'note': '车辆覆盖件及驾驶舱', 'title': ['无火烧或烟熏']}], 'right': [{'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 36, 'note': '右后叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 37, 'note': '右后轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 38, 'note': '右后轮胎', 'title': ['正常']}, {'category': ['appearanceDamage', 'metalRepair'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage', 'metalRepair'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 39, 'note': '右后门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 83, 'note': '右侧中底板纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 40, 'note': '右C柱', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 41, 'note': '右B柱', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 42, 'note': '右前门', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 43, 'note': '右A柱', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 44, 'note': '右后视镜', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 45, 'note': '右前叶子板', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 46, 'note': '右前轮毂', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 47, 'note': '右前轮胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 48, 'note': '右裙边', 'title': ['正常']}], 'tail': [{'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 28, 'note': '左后大灯', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 29, 'note': '右后大灯', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 79, 'note': '后横梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 80, 'note': '左后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 81, 'note': '右后纵梁', 'title': ['正常']}, {'category': ['skeletonDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 82, 'note': '后防撞梁', 'title': ['正常']}, {'category': ['metalRepair', 'appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['metalRepair', 'appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 30, 'note': '后行李箱盖', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 31, 'note': '后保险杠', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 32, 'note': '后挡风玻璃', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 33, 'note': '备胎', 'title': ['正常']}, {'category': ['appearanceDamage'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['appearanceDamage'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 34, 'note': '随车工具', 'title': ['正常']}, {'category': ['skeletonDamage', 'waterCheck'], 'damageList': [{'__keyPath': {'selected': True}, 'category': ['skeletonDamage', 'waterCheck'], 'key': '1', 'selected': True, 'value': '正常'}], 'defaultTitle': ['正常'], 'id': 35, 'note': '备胎室', 'title': ['正常']}]}, 'is_inspections_ready': True}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1553,12 +1554,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>评估线索-生成评估报告</t>
+          <t>评估线索-评估简述</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/status</t>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/qymp_remark</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1568,12 +1569,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>{"is_from_car_manage":False}</t>
+          <t>{'note': '接口测试', 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>post</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1581,7 +1582,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'ticket_id': 6725}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'is_details_ready': True, 'is_qymp_note_ready': True}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1596,17 +1597,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>估价</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/appraise</t>
+          <t>评估线索-生成评估报告</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/status</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>{"note": "接口自动化估价","price": "12000000" }</t>
+          <t>{"is_from_car_manage":"false"}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'code': 0, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'ticket_id': 6770}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1628,21 +1629,59 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="193.2" r="16">
+    <row r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>估价</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/appraise</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>{"note": "接口自动化估价","price": "12000000" }</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'message': 'ok'}</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="193.2" r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>签合同</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/contract</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>{"channel": "1",
 "replace_detail": "1","appraiser": "李晓良","appraiser_id": "1817","price": "9900000","recepit_name": "李晓良","bank_name": "招行",
@@ -1653,47 +1692,9 @@
  "${img_path}","personal_identification_front_image_url": "${img_path}","personal_identification_back_image_url":"${img_path}"}</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>put</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'message': 'ok'}</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>财务审核-通过</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finance/review</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>{"note":"接口自动化测试","action":"approve"}</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>post</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1716,17 +1717,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>店总审核-通过</t>
+          <t>财务审核-通过</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/manager/review</t>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finance/review</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>{"note":"接口自动化，店总审核","action":"approve"}</t>
+          <t>{"note":"接口自动化测试","action":"approve"}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1748,21 +1749,59 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="303.6" r="19">
+    <row r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>店总审核-通过</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/manager/review</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>{"note":"接口自动化，店总审核","action":"approve"}</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'message': 'ok'}</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="303.6" r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>财务放款</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finish</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>{
             "price": "880000",
@@ -1787,20 +1826,20 @@
             "image_url_payment":"${img_path}"}</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>{'code': 0, 'message': 'ok'}</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1812,20 +1851,21 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/evaluation/car_info" ref="C3" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/evaluation/car_info" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}" ref="C4" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" ref="C5" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images" ref="C6" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C7" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" ref="C6" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images" ref="C7" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images" r:id="rId6"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C8" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" r:id="rId7"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C9" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C10" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C12" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_id}/inspection" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/qymp_remark" ref="C13" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/qymp_remark" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/status" ref="C14" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_id}/status" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/appraise" ref="C15" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/appraise" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/contract" ref="C16" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/contract" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finance/review" ref="C17" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finance/review" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/manager/review" ref="C18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finish" ref="C19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/inspection" ref="C13" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_id}/inspection" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/qymp_remark" ref="C14" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/qymp_remark" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/status" ref="C15" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_id}/status" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/appraise" ref="C16" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/appraise" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/contract" ref="C17" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/contract" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finance/review" ref="C18" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finance/review" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/manager/review" ref="C19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/finish" ref="C20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="23040"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9420" windowWidth="22368"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="usedCar_collection" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,140 +47,140 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -191,187 +191,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,11 +385,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,32 +430,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,20 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,10 +488,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -500,131 +500,131 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="8" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="11" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="9" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="20" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,10 +964,10 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A19" ySplit="1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="C24" pane="bottomLeft" sqref="C24"/>
+      <selection activeCell="C7" pane="bottomLeft" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'id': 6770, 'plate_number_exist_data': False, 'reference_price': 5200000}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'id': 8318, 'plate_number_exist_data': False, 'reference_price': 5120000}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'car_info_id': 24123}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'car_info_id': 28970}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>{"info_has_changes": True, "mask_left_front_image_url": "${img_path}", "left_front_image_url": "${img_path}","mask_left_image_url": "${img_path}", "left_image_url": "${img_path}", "mask_front_chair_image_url": "${img_path}","front_chair_image_url": "${img_path}", "mask_dashboard_image_url": "${img_path}","dashboard_image_url": "${img_path}", "mask_back_chair_image_url": "${img_path}","back_chair_image_url": "${img_path}", "mask_central_control_board_image_url": "${img_path}",                "central_control_board_image_url": "${img_path}", "mask_end_image_url": "${img_path}", "end_image_url": "${img_path}","mask_trunk_bottom_image_url": "${img_path}", "trunk_bottom_image_url": "${img_path}","mask_right_end_image_url": "${img_path}", "right_end_image_url": "${img_path}","mask_engine_compartment_image_url": "${img_path}", "engine_compartment_image_url": "${img_path}","mask_factory_nameplate_image_url": "${img_path}", "factory_nameplate_image_url": "${img_path}", "mask_other_1_image_url": "${img_path}", "other_1_image_url": "${img_path}", "mask_other_2_image_url": "${img_path}","other_2_image_url": "${img_path}", "mask_other_3_image_url": "${img_path}", "other_3_image_url": "${img_path}","mask_other_4_image_url": "${img_path}", "other_4_image_url": "${img_path}", "mask_other_5_image_url": "${img_path}", "other_5_image_url": "${img_path}"}</t>
+          <t>{'info_has_changes': True, 'images': {'mask_left_front_image_url': '${img_path}', 'left_front_image_url': '${img_path}', 'mask_left_image_url': '${img_path}', 'left_image_url': '${img_path}', 'mask_front_chair_image_url': '${img_path}', 'front_chair_image_url': '${img_path}', 'mask_dashboard_image_url': '${img_path}', 'dashboard_image_url': '${img_path}', 'mask_back_chair_image_url': '${img_path}', 'back_chair_image_url': '${img_path}', 'mask_central_control_board_image_url': '${img_path}', 'central_control_board_image_url': '${img_path}', 'mask_end_image_url': '${img_path}', 'end_image_url': '${img_path}', 'mask_trunk_bottom_image_url': '${img_path}', 'trunk_bottom_image_url': '${img_path}', 'mask_right_end_image_url': '${img_path}', 'right_end_image_url': '${img_path}', 'mask_engine_compartment_image_url': '${img_path}', 'engine_compartment_image_url': '${img_path}', 'mask_factory_nameplate_image_url': '${img_path}', 'factory_nameplate_image_url': '${img_path}', 'mask_other_1_image_url': '${img_path}', 'other_1_image_url': '${img_path}', 'mask_other_2_image_url': '${img_path}', 'other_2_image_url': '${img_path}', 'mask_other_3_image_url': '${img_path}', 'other_3_image_url': '${img_path}', 'mask_other_4_image_url': '${img_path}', 'other_4_image_url': '${img_path}', 'mask_other_5_image_url': '${img_path}', 'other_5_image_url': '${img_path}', 'video_url': ''}}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1482,8 +1482,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>{'inspection': {'machine_interior': [{'id': 49, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '发动机', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 50, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '变速箱', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 51, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '转向机', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 52, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '减震器', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 53, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '消音器', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 54, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '座椅', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 55, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '安全带', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 84, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '主驾驶位安全气囊', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 85, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '副驾驶位安全气囊', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 56, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '顶蓬', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 57, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '门饰板', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 58, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '地毯', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 59, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '换挡杆', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 60, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '中央控制台', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 61, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '方向盘', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 62, 'title': ['无泥沙/无更换过/无清理痕迹'], 'damageList': [{'key': '1', 'value': '无泥沙/无更换过/无清理痕迹', 'selected': True, 'category': ['waterCheck', 'inDecoration'], '__keyPath': {'selected': True}}], 'note': '保险盒', 'category': ['waterCheck', 'inDecoration'], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹']}, {'id': 63, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': 'EUC接口处', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 64, 'title': ['无锈迹'], 'damageList': [{'key': '1', 'value': '无锈迹', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '点烟器底座', 'category': ['waterCheck'], 'defaultTitle': ['无锈迹']}, {'id': 65, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '烟灰缸底座', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 66, 'title': ['无霉味/无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无霉味/无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '驾驶舱和后备箱内', 'category': ['waterCheck'], 'defaultTitle': ['无霉味/无水渍或泥沙']}, {'id': 67, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '后排座椅坐垫底部', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 68, 'title': ['无火烧或烟熏'], 'damageList': [{'key': '1', 'value': '无火烧或烟熏', 'selected': True, 'category': ['fireCheck'], '__keyPath': {'selected': True}}], 'note': '发动机线束及橡胶制品', 'category': ['fireCheck'], 'defaultTitle': ['无火烧或烟熏']}, {'id': 69, 'title': ['无火烧或烟熏'], 'damageList': [{'key': '1', 'value': '无火烧或烟熏', 'selected': True, 'category': ['fireCheck'], '__keyPath': {'selected': True}}], 'note': '车辆覆盖件及驾驶舱', 'category': ['fireCheck'], 'defaultTitle': ['无火烧或烟熏']}]}, 'info_has_changes': True}
-</t>
+          <t>{'inspection': {'machine_interior': [{'id': 49, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '发动机', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 50, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '变速箱', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 51, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '转向机', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 52, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '减震器', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 53, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['machines'], '__keyPath': {'selected': True}}], 'note': '消音器', 'category': ['machines'], 'defaultTitle': ['正常']}, {'id': 54, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '座椅', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 55, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '安全带', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 84, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '主驾驶位安全气囊', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 85, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '副驾驶位安全气囊', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 56, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '顶蓬', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 57, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '门饰板', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 58, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration', 'waterCheck'], '__keyPath': {'selected': True}}], 'note': '地毯', 'category': ['inDecoration', 'waterCheck'], 'defaultTitle': ['正常']}, {'id': 59, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '换挡杆', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 60, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '中央控制台', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 61, 'title': ['正常'], 'damageList': [{'key': '1', 'value': '正常', 'selected': True, 'category': ['inDecoration'], '__keyPath': {'selected': True}}], 'note': '方向盘', 'category': ['inDecoration'], 'defaultTitle': ['正常']}, {'id': 62, 'title': ['无泥沙/无更换过/无清理痕迹'], 'damageList': [{'key': '1', 'value': '无泥沙/无更换过/无清理痕迹', 'selected': True, 'category': ['waterCheck', 'inDecoration'], '__keyPath': {'selected': True}}], 'note': '保险盒', 'category': ['waterCheck', 'inDecoration'], 'defaultTitle': ['无泥沙/无更换过/无清理痕迹']}, {'id': 63, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': 'EUC接口处', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 64, 'title': ['无锈迹'], 'damageList': [{'key': '1', 'value': '无锈迹', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '点烟器底座', 'category': ['waterCheck'], 'defaultTitle': ['无锈迹']}, {'id': 65, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '烟灰缸底座', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 66, 'title': ['无霉味/无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无霉味/无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '驾驶舱和后备箱内', 'category': ['waterCheck'], 'defaultTitle': ['无霉味/无水渍或泥沙']}, {'id': 67, 'title': ['无水渍或泥沙'], 'damageList': [{'key': '1', 'value': '无水渍或泥沙', 'selected': True, 'category': ['waterCheck'], '__keyPath': {'selected': True}}], 'note': '后排座椅坐垫底部', 'category': ['waterCheck'], 'defaultTitle': ['无水渍或泥沙']}, {'id': 68, 'title': ['无火烧或烟熏'], 'damageList': [{'key': '1', 'value': '无火烧或烟熏', 'selected': True, 'category': ['fireCheck'], '__keyPath': {'selected': True}}], 'note': '发动机线束及橡胶制品', 'category': ['fireCheck'], 'defaultTitle': ['无火烧或烟熏']}, {'id': 69, 'title': ['无火烧或烟熏'], 'damageList': [{'key': '1', 'value': '无火烧或烟熏', 'selected': True, 'category': ['fireCheck'], '__keyPath': {'selected': True}}], 'note': '车辆覆盖件及驾驶舱', 'category': ['fireCheck'], 'defaultTitle': ['无火烧或烟熏']}]}, 'info_has_changes': True}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1620,7 +1619,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{'code': 0, 'data': {'ticket_id': 6770}, 'message': 'ok'}</t>
+          <t>{'code': 0, 'data': {'ticket_id': 8318}, 'message': 'ok'}</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1849,7 +1848,7 @@
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/tickets" ref="C2" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/tickets" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/evaluation/car_info" ref="C3" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/#{car_id}/evaluation/car_info" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}" ref="C4" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}" ref="C4" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/28867" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" ref="C5" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" r:id="rId4"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" ref="C6" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/info" r:id="rId5"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images" ref="C7" tooltip="https://q.test.dos.cheanjia.net/api/v1/used_car/ticket/car_info/#{car_info_id}/images" r:id="rId6"/>
